--- a/fieldNotes/Argos_posthatch.xlsx
+++ b/fieldNotes/Argos_posthatch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14064\Dropbox\BTGO Movmement Study\nestAutoEval\fieldNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\OneDrive\Desktop\nestAutoEval\fieldNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB8371B-5243-43AA-A2EB-ADA0A9FC8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1397BE-3DA9-4A9D-9764-5121EEF31906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LatestDayAdultSeenChickGuiding" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Colourcode</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>2510484-2015</t>
+  </si>
+  <si>
+    <t>2510490-2015</t>
   </si>
 </sst>
 </file>
@@ -735,20 +741,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -776,7 +782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -790,7 +796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -804,7 +810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -833,20 +839,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -866,7 +874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -882,8 +890,11 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -899,8 +910,11 @@
       <c r="F3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -917,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -934,7 +948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -951,7 +965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -968,7 +982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -985,7 +999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1246,7 +1260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
@@ -1390,20 +1404,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.40625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +1519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1538,8 +1552,11 @@
       <c r="E8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F8">
+        <v>2505015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
@@ -1592,5 +1609,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fieldNotes/Argos_posthatch.xlsx
+++ b/fieldNotes/Argos_posthatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14064\Dropbox\BTGO Movmement Study\nestAutoEval\fieldNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\OneDrive\Desktop\nestAutoEval\fieldNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB8371B-5243-43AA-A2EB-ADA0A9FC8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF3C3BA-6774-422C-82A3-980D5AEF80C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40980" yWindow="4665" windowWidth="24240" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LatestDayAdultSeenChickGuiding" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="FirstDayFledgedChickSeen" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>Colourcode</t>
   </si>
@@ -255,6 +256,153 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>144430-2015</t>
+  </si>
+  <si>
+    <t>144437-2015</t>
+  </si>
+  <si>
+    <t>144443-2015</t>
+  </si>
+  <si>
+    <t>144154-2015</t>
+  </si>
+  <si>
+    <t>144439-2015</t>
+  </si>
+  <si>
+    <t>144421-2015</t>
+  </si>
+  <si>
+    <t>144427-2015</t>
+  </si>
+  <si>
+    <t>144438-2015</t>
+  </si>
+  <si>
+    <t>144432-2015</t>
+  </si>
+  <si>
+    <t>144424-2015</t>
+  </si>
+  <si>
+    <t>144423-2015</t>
+  </si>
+  <si>
+    <t>144434-2015</t>
+  </si>
+  <si>
+    <t>144433-2015</t>
+  </si>
+  <si>
+    <t>144436-2015</t>
+  </si>
+  <si>
+    <t>144428-2015</t>
+  </si>
+  <si>
+    <t>144429-2015</t>
+  </si>
+  <si>
+    <t>144422-2015</t>
+  </si>
+  <si>
+    <t>144440-2015</t>
+  </si>
+  <si>
+    <t>144418-2015</t>
+  </si>
+  <si>
+    <t>144442-2015</t>
+  </si>
+  <si>
+    <t>144420-2015</t>
+  </si>
+  <si>
+    <t>144434-2016</t>
+  </si>
+  <si>
+    <t>144436-2016</t>
+  </si>
+  <si>
+    <t>134755-2016</t>
+  </si>
+  <si>
+    <t>134747-2016</t>
+  </si>
+  <si>
+    <t>144439-2017</t>
+  </si>
+  <si>
+    <t>157535-2017</t>
+  </si>
+  <si>
+    <t>157553-2017</t>
+  </si>
+  <si>
+    <t>144436-2017</t>
+  </si>
+  <si>
+    <t>157558-2017</t>
+  </si>
+  <si>
+    <t>id_by_code</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>time series starts 5/15/2015, no lab: nesting</t>
+  </si>
+  <si>
+    <t>nothing past 7/10/2015 (left nesting area)</t>
+  </si>
+  <si>
+    <t>no problems</t>
+  </si>
+  <si>
+    <t>no migration pings</t>
+  </si>
+  <si>
+    <t>time series starts 5/24/2015, no lab: nesting</t>
+  </si>
+  <si>
+    <t>no lab nesting</t>
+  </si>
+  <si>
+    <t>no labs: incubation and migration</t>
+  </si>
+  <si>
+    <t>no lab: incubation</t>
+  </si>
+  <si>
+    <t>no migrations</t>
+  </si>
+  <si>
+    <t>no incubation</t>
+  </si>
+  <si>
+    <t>no probs</t>
+  </si>
+  <si>
+    <t>no migration</t>
+  </si>
+  <si>
+    <t>no nesting data</t>
+  </si>
+  <si>
+    <t>no migration or incubation</t>
+  </si>
+  <si>
+    <t>no migrations/incubation</t>
+  </si>
+  <si>
+    <t>no incubations/migrations</t>
+  </si>
+  <si>
+    <t>no incubations</t>
   </si>
 </sst>
 </file>
@@ -264,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +447,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -381,7 +537,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +603,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,20 +898,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,8 +924,11 @@
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="E1" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -775,8 +941,11 @@
       <c r="D2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -790,7 +959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -804,7 +973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,7 +987,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -833,20 +1002,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -865,8 +1037,14 @@
       <c r="F1" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -882,8 +1060,14 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -899,8 +1083,14 @@
       <c r="F3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -916,8 +1106,14 @@
       <c r="F4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -933,8 +1129,14 @@
       <c r="F5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -950,8 +1152,14 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -967,8 +1175,14 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -984,8 +1198,14 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1001,8 +1221,14 @@
       <c r="F9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1018,8 +1244,14 @@
       <c r="F10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1035,8 +1267,14 @@
       <c r="F11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1052,8 +1290,14 @@
       <c r="F12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1069,8 +1313,14 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1086,8 +1336,14 @@
       <c r="F14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1103,8 +1359,14 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1385,14 @@
       <c r="F16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1140,8 +1408,14 @@
       <c r="F17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1157,8 +1431,14 @@
       <c r="F18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1177,8 +1457,14 @@
       <c r="F19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1194,8 +1480,14 @@
       <c r="F20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1211,8 +1503,14 @@
       <c r="F21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1228,8 +1526,14 @@
       <c r="F22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1245,8 +1549,14 @@
       <c r="F23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1262,8 +1572,14 @@
       <c r="F24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
@@ -1279,8 +1595,14 @@
       <c r="F25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -1296,8 +1618,14 @@
       <c r="F26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
@@ -1313,8 +1641,14 @@
       <c r="F27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +1664,14 @@
       <c r="F28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1687,14 @@
       <c r="F29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -1364,8 +1710,14 @@
       <c r="F30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
@@ -1380,6 +1732,12 @@
       </c>
       <c r="F31" t="s">
         <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1392,18 +1750,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.40625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +1863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>

--- a/fieldNotes/Argos_posthatch.xlsx
+++ b/fieldNotes/Argos_posthatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\OneDrive\Desktop\nestAutoEval\fieldNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14064\Desktop\nestAutoEval\fieldNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF3C3BA-6774-422C-82A3-980D5AEF80C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3492B70-E026-49E5-B37C-4821BC8333B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="4665" windowWidth="24240" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12930" yWindow="-16320" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LatestDayAdultSeenChickGuiding" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="FirstDayFledgedChickSeen" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -902,16 +901,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -945,7 +944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -959,7 +958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -973,7 +972,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -987,7 +986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -1008,17 +1007,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
@@ -1751,17 +1750,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.31640625" customWidth="1"/>
+    <col min="2" max="2" width="24.953125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.76953125" customWidth="1"/>
+    <col min="5" max="5" width="17.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
